--- a/cronograma.xlsx
+++ b/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\Octavo Semestre\Computacion Grafica\ProyFinal\ProyectoCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E49957-9114-48F6-9D2F-125675CC4BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BD7F8C-3C13-45F1-B7D3-B96A51F6D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A81C6D7D-8F9D-47F5-B466-7877C279A443}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Cronograma de actividades</t>
   </si>
@@ -58,9 +58,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Creación de modelos</t>
-  </si>
-  <si>
     <t>Codificación</t>
   </si>
   <si>
@@ -71,6 +68,24 @@
   </si>
   <si>
     <t>Redacción de documentación</t>
+  </si>
+  <si>
+    <t>Corrección de detalles</t>
+  </si>
+  <si>
+    <t>Creación y edición de modelos</t>
+  </si>
+  <si>
+    <t>Incorporación de una textura de piso</t>
+  </si>
+  <si>
+    <t>Investigación e incorporación de Skybox</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Implementación de animaciones</t>
   </si>
 </sst>
 </file>
@@ -298,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,30 +354,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,6 +385,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +718,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,19 +727,19 @@
     <col min="4" max="12" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -731,34 +755,34 @@
       <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="14">
         <v>4</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>5</v>
       </c>
-      <c r="F3" s="16">
-        <v>6</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="F3" s="15">
+        <v>6</v>
+      </c>
+      <c r="G3" s="15">
         <v>7</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>8</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>9</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>10</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>11</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="16">
         <v>12</v>
       </c>
     </row>
@@ -786,9 +810,9 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6">
         <v>44685</v>
@@ -809,14 +833,18 @@
       <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6">
         <v>44685</v>
@@ -838,7 +866,7 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6">
         <v>44685</v>
@@ -859,16 +887,22 @@
       <c r="H7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44691</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -876,40 +910,103 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44689</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="H9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="26">
+        <v>44690</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="26">
+        <v>44686</v>
+      </c>
+      <c r="C11" s="26">
+        <v>44691</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26">
+        <v>44689</v>
+      </c>
+      <c r="C12" s="26">
+        <v>44690</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>

--- a/cronograma.xlsx
+++ b/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\Octavo Semestre\Computacion Grafica\ProyFinal\ProyectoCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BD7F8C-3C13-45F1-B7D3-B96A51F6D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8689CDBF-873C-45A5-B6BA-6C5C3293DD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A81C6D7D-8F9D-47F5-B466-7877C279A443}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>Cronograma de actividades</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Implementación de animaciones</t>
+  </si>
+  <si>
+    <t>Creación de ejecutable final</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,13 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6E7E03-6D1C-4CA1-87FF-7067265402C9}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +836,9 @@
       <c r="J5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -893,7 +892,9 @@
       <c r="J7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -903,7 +904,9 @@
       <c r="B8" s="6">
         <v>44691</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="6">
+        <v>44692</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -913,7 +916,9 @@
       <c r="J8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -937,79 +942,144 @@
       <c r="J9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="6">
         <v>44690</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>6</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="6">
         <v>44686</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="6">
         <v>44691</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>6</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="6">
         <v>44689</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="6">
         <v>44690</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="27"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>6</v>
-      </c>
+      <c r="B13" s="6">
+        <v>44690</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="B14" s="6">
+        <v>44691</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
